--- a/config.xlsx
+++ b/config.xlsx
@@ -1,17 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\M.s\Thesis\GitHub\GradThesis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2239E3-34AD-41B5-921A-2DCA2D86941B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="config.csv" sheetId="1" r:id="rId4"/>
+    <sheet name="config" sheetId="1" r:id="rId1"/>
+    <sheet name="OutBound Cancellation cost" sheetId="3" r:id="rId2"/>
+    <sheet name="InBound Cancellation cost" sheetId="4" r:id="rId3"/>
+    <sheet name="Delay Cost" sheetId="2" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="25">
   <si>
     <t>07/01/06 12:00 08/01/06 04:00</t>
   </si>
@@ -19,9 +42,6 @@
     <t>Start-End of recovery period</t>
   </si>
   <si>
-    <t>F D 1.25 F C 1.25 F I 1.25 B D 0.8 B C 0.85 B I 0.9 E D 0.05 E C 0.15 E I 0.25</t>
-  </si>
-  <si>
     <t>Class - type - delay cost per minute, per passenger</t>
   </si>
   <si>
@@ -56,22 +76,90 @@
   </si>
   <si>
     <t>Type : Domestic - Continental - Intercontinental - Proximity</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Delay cost per minutes,per passenger</t>
+  </si>
+  <si>
+    <t>Cancellation cost per minutes,per passenger</t>
+  </si>
+  <si>
+    <t>Grouped by Class</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -80,36 +168,182 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+  <cellXfs count="25">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -299,24 +533,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="85.38"/>
-    <col customWidth="1" min="2" max="2" width="44.63"/>
+    <col min="1" max="1" width="85.33203125" customWidth="1"/>
+    <col min="2" max="2" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -324,64 +563,557 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="1" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FB2B131-7581-449C-8C7E-F18C6736723B}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>14</v>
       </c>
+      <c r="B2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="15">
+        <v>2500</v>
+      </c>
+      <c r="D2" s="20">
+        <f>AVERAGE(C2:C4)</f>
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="15">
+        <v>2750</v>
+      </c>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="15">
+        <v>3000</v>
+      </c>
+      <c r="D4" s="20"/>
+    </row>
+    <row r="5" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1500</v>
+      </c>
+      <c r="D5" s="20">
+        <f>AVERAGE(C5:C7)</f>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1750</v>
+      </c>
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="15">
+        <v>2000</v>
+      </c>
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="15">
+        <v>250</v>
+      </c>
+      <c r="D8" s="20">
+        <f>AVERAGE(C8:C10)</f>
+        <v>616.66666666666663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="15">
+        <v>600</v>
+      </c>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="18">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="21"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <mergeCells count="3">
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8D3F0B-1368-490F-9D53-CFE14D06CFB4}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="7">
+        <v>7500</v>
+      </c>
+      <c r="D2" s="22">
+        <f>AVERAGE(C2:C4)</f>
+        <v>8250</v>
+      </c>
+      <c r="E2" s="24">
+        <f>AVERAGE(C2:C10)</f>
+        <v>5083.333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7">
+        <v>8250</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="7">
+        <v>9000</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7">
+        <v>4500</v>
+      </c>
+      <c r="D5" s="22">
+        <f>AVERAGE(C5:C7)</f>
+        <v>5250</v>
+      </c>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7">
+        <v>5250</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="7">
+        <v>6000</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7">
+        <v>750</v>
+      </c>
+      <c r="D8" s="22">
+        <f>AVERAGE(C8:C10)</f>
+        <v>1750</v>
+      </c>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1500</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="9">
+        <v>3000</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E2:E10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187C8DFA-889B-4237-9E04-4295500F7BCB}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1.25</v>
+      </c>
+      <c r="D2" s="22">
+        <f>AVERAGE(C2:C4)</f>
+        <v>1.25</v>
+      </c>
+      <c r="E2" s="24">
+        <f>AVERAGE(D2:D10)</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="15">
+        <v>1.25</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="15">
+        <v>1.25</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="D5" s="22">
+        <f>AVERAGE(C5:C7)</f>
+        <v>0.85</v>
+      </c>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0.85</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="D8" s="22">
+        <f>AVERAGE(C8:C10)</f>
+        <v>0.15</v>
+      </c>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E2:E10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>